--- a/PhoenixCI/Excel_Template/30395.xlsx
+++ b/PhoenixCI/Excel_Template/30395.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAD0D192-92E2-44D6-B0D1-B1DA1970F250}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C687A5D4-1F9E-4412-88A8-7F0EC41F1E91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955"/>
   </bookViews>
   <sheets>
     <sheet name="30395" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -729,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -748,6 +747,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -778,6 +780,9 @@
     </xf>
     <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -819,7 +824,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="182" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,7 +834,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="190" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -838,22 +843,22 @@
     <xf numFmtId="190" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="190" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="191" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="191" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -865,13 +870,13 @@
     <xf numFmtId="191" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,10 +921,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1043,7 +1051,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C1EC-469B-8B24-352568BECDB1}"/>
+              <c16:uniqueId val="{00000000-A422-4707-A3DB-614CAA187BD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1093,7 +1101,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C1EC-469B-8B24-352568BECDB1}"/>
+              <c16:uniqueId val="{00000001-A422-4707-A3DB-614CAA187BD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1106,7 +1114,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="435366040"/>
+        <c:axId val="383174288"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1161,7 +1169,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C1EC-469B-8B24-352568BECDB1}"/>
+              <c16:uniqueId val="{00000002-A422-4707-A3DB-614CAA187BD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1212,7 +1220,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C1EC-469B-8B24-352568BECDB1}"/>
+              <c16:uniqueId val="{00000003-A422-4707-A3DB-614CAA187BD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1230,7 +1238,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435366040"/>
+        <c:axId val="383174288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1322,7 +1330,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435366040"/>
+        <c:crossAx val="383174288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1560,7 +1568,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                <c16:uniqueId val="{00000000-B142-451F-8AF4-09DA2306F18A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1580,7 +1588,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                <c16:uniqueId val="{00000001-B142-451F-8AF4-09DA2306F18A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1600,7 +1608,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                <c16:uniqueId val="{00000002-B142-451F-8AF4-09DA2306F18A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1620,7 +1628,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                <c16:uniqueId val="{00000003-B142-451F-8AF4-09DA2306F18A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1640,7 +1648,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                <c16:uniqueId val="{00000004-B142-451F-8AF4-09DA2306F18A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1660,7 +1668,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                <c16:uniqueId val="{00000005-B142-451F-8AF4-09DA2306F18A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1680,7 +1688,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                <c16:uniqueId val="{00000006-B142-451F-8AF4-09DA2306F18A}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1727,7 +1735,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                  <c16:uniqueId val="{00000000-B142-451F-8AF4-09DA2306F18A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1773,7 +1781,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                  <c16:uniqueId val="{00000001-B142-451F-8AF4-09DA2306F18A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1819,7 +1827,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                  <c16:uniqueId val="{00000002-B142-451F-8AF4-09DA2306F18A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1865,7 +1873,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                  <c16:uniqueId val="{00000003-B142-451F-8AF4-09DA2306F18A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1911,7 +1919,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                  <c16:uniqueId val="{00000004-B142-451F-8AF4-09DA2306F18A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1957,7 +1965,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+                  <c16:uniqueId val="{00000005-B142-451F-8AF4-09DA2306F18A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2059,7 +2067,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
+              <c16:uniqueId val="{00000007-B142-451F-8AF4-09DA2306F18A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2252,7 +2260,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-DEBB-463A-BB9F-E074826F4352}"/>
+                <c16:uniqueId val="{00000000-87AB-47A4-9E37-3B3F80EF604E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2272,7 +2280,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-DEBB-463A-BB9F-E074826F4352}"/>
+                <c16:uniqueId val="{00000001-87AB-47A4-9E37-3B3F80EF604E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2292,7 +2300,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-DEBB-463A-BB9F-E074826F4352}"/>
+                <c16:uniqueId val="{00000002-87AB-47A4-9E37-3B3F80EF604E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2312,7 +2320,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-DEBB-463A-BB9F-E074826F4352}"/>
+                <c16:uniqueId val="{00000003-87AB-47A4-9E37-3B3F80EF604E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2332,7 +2340,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-DEBB-463A-BB9F-E074826F4352}"/>
+                <c16:uniqueId val="{00000004-87AB-47A4-9E37-3B3F80EF604E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2352,7 +2360,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-DEBB-463A-BB9F-E074826F4352}"/>
+                <c16:uniqueId val="{00000005-87AB-47A4-9E37-3B3F80EF604E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2372,7 +2380,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-DEBB-463A-BB9F-E074826F4352}"/>
+                <c16:uniqueId val="{00000006-87AB-47A4-9E37-3B3F80EF604E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2419,7 +2427,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-DEBB-463A-BB9F-E074826F4352}"/>
+                  <c16:uniqueId val="{00000000-87AB-47A4-9E37-3B3F80EF604E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2465,7 +2473,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-DEBB-463A-BB9F-E074826F4352}"/>
+                  <c16:uniqueId val="{00000001-87AB-47A4-9E37-3B3F80EF604E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2511,7 +2519,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-DEBB-463A-BB9F-E074826F4352}"/>
+                  <c16:uniqueId val="{00000002-87AB-47A4-9E37-3B3F80EF604E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2557,7 +2565,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-DEBB-463A-BB9F-E074826F4352}"/>
+                  <c16:uniqueId val="{00000003-87AB-47A4-9E37-3B3F80EF604E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2603,7 +2611,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DEBB-463A-BB9F-E074826F4352}"/>
+                  <c16:uniqueId val="{00000004-87AB-47A4-9E37-3B3F80EF604E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2649,7 +2657,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-DEBB-463A-BB9F-E074826F4352}"/>
+                  <c16:uniqueId val="{00000005-87AB-47A4-9E37-3B3F80EF604E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2751,7 +2759,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DEBB-463A-BB9F-E074826F4352}"/>
+              <c16:uniqueId val="{00000007-87AB-47A4-9E37-3B3F80EF604E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2934,7 +2942,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC16-4879-BB79-1C349A101A19}"/>
+              <c16:uniqueId val="{00000000-6342-49FC-8D9A-5224C38AB622}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2984,7 +2992,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC16-4879-BB79-1C349A101A19}"/>
+              <c16:uniqueId val="{00000001-6342-49FC-8D9A-5224C38AB622}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2997,7 +3005,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="436319248"/>
+        <c:axId val="382506400"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -3052,7 +3060,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC16-4879-BB79-1C349A101A19}"/>
+              <c16:uniqueId val="{00000002-6342-49FC-8D9A-5224C38AB622}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3103,7 +3111,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EC16-4879-BB79-1C349A101A19}"/>
+              <c16:uniqueId val="{00000003-6342-49FC-8D9A-5224C38AB622}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3121,7 +3129,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="436319248"/>
+        <c:axId val="382506400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3213,7 +3221,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="436319248"/>
+        <c:crossAx val="382506400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -3451,7 +3459,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-514F-4F08-93DC-9491B0C30AD2}"/>
+                <c16:uniqueId val="{00000000-55BE-4194-9A1F-FA1A925EAF70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3471,7 +3479,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-514F-4F08-93DC-9491B0C30AD2}"/>
+                <c16:uniqueId val="{00000001-55BE-4194-9A1F-FA1A925EAF70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3491,7 +3499,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-514F-4F08-93DC-9491B0C30AD2}"/>
+                <c16:uniqueId val="{00000002-55BE-4194-9A1F-FA1A925EAF70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3511,7 +3519,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-514F-4F08-93DC-9491B0C30AD2}"/>
+                <c16:uniqueId val="{00000003-55BE-4194-9A1F-FA1A925EAF70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3531,7 +3539,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-514F-4F08-93DC-9491B0C30AD2}"/>
+                <c16:uniqueId val="{00000004-55BE-4194-9A1F-FA1A925EAF70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3551,7 +3559,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-514F-4F08-93DC-9491B0C30AD2}"/>
+                <c16:uniqueId val="{00000005-55BE-4194-9A1F-FA1A925EAF70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3571,7 +3579,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-514F-4F08-93DC-9491B0C30AD2}"/>
+                <c16:uniqueId val="{00000006-55BE-4194-9A1F-FA1A925EAF70}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3618,7 +3626,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-514F-4F08-93DC-9491B0C30AD2}"/>
+                  <c16:uniqueId val="{00000000-55BE-4194-9A1F-FA1A925EAF70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3664,7 +3672,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-514F-4F08-93DC-9491B0C30AD2}"/>
+                  <c16:uniqueId val="{00000001-55BE-4194-9A1F-FA1A925EAF70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3710,7 +3718,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-514F-4F08-93DC-9491B0C30AD2}"/>
+                  <c16:uniqueId val="{00000002-55BE-4194-9A1F-FA1A925EAF70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3756,7 +3764,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-514F-4F08-93DC-9491B0C30AD2}"/>
+                  <c16:uniqueId val="{00000003-55BE-4194-9A1F-FA1A925EAF70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3802,7 +3810,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-514F-4F08-93DC-9491B0C30AD2}"/>
+                  <c16:uniqueId val="{00000004-55BE-4194-9A1F-FA1A925EAF70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3848,7 +3856,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-514F-4F08-93DC-9491B0C30AD2}"/>
+                  <c16:uniqueId val="{00000005-55BE-4194-9A1F-FA1A925EAF70}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3950,7 +3958,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-514F-4F08-93DC-9491B0C30AD2}"/>
+              <c16:uniqueId val="{00000007-55BE-4194-9A1F-FA1A925EAF70}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4143,7 +4151,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-ADC5-45EB-93D0-2028DE3405CA}"/>
+                <c16:uniqueId val="{00000000-B886-448D-BABE-6AA799D84D69}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4163,7 +4171,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-ADC5-45EB-93D0-2028DE3405CA}"/>
+                <c16:uniqueId val="{00000001-B886-448D-BABE-6AA799D84D69}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4183,7 +4191,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-ADC5-45EB-93D0-2028DE3405CA}"/>
+                <c16:uniqueId val="{00000002-B886-448D-BABE-6AA799D84D69}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4203,7 +4211,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-ADC5-45EB-93D0-2028DE3405CA}"/>
+                <c16:uniqueId val="{00000003-B886-448D-BABE-6AA799D84D69}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4223,7 +4231,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-ADC5-45EB-93D0-2028DE3405CA}"/>
+                <c16:uniqueId val="{00000004-B886-448D-BABE-6AA799D84D69}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4243,7 +4251,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-ADC5-45EB-93D0-2028DE3405CA}"/>
+                <c16:uniqueId val="{00000005-B886-448D-BABE-6AA799D84D69}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4263,7 +4271,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-ADC5-45EB-93D0-2028DE3405CA}"/>
+                <c16:uniqueId val="{00000006-B886-448D-BABE-6AA799D84D69}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4310,7 +4318,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-ADC5-45EB-93D0-2028DE3405CA}"/>
+                  <c16:uniqueId val="{00000000-B886-448D-BABE-6AA799D84D69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4356,7 +4364,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-ADC5-45EB-93D0-2028DE3405CA}"/>
+                  <c16:uniqueId val="{00000001-B886-448D-BABE-6AA799D84D69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4402,7 +4410,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-ADC5-45EB-93D0-2028DE3405CA}"/>
+                  <c16:uniqueId val="{00000002-B886-448D-BABE-6AA799D84D69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4448,7 +4456,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-ADC5-45EB-93D0-2028DE3405CA}"/>
+                  <c16:uniqueId val="{00000003-B886-448D-BABE-6AA799D84D69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4494,7 +4502,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-ADC5-45EB-93D0-2028DE3405CA}"/>
+                  <c16:uniqueId val="{00000004-B886-448D-BABE-6AA799D84D69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4540,7 +4548,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-ADC5-45EB-93D0-2028DE3405CA}"/>
+                  <c16:uniqueId val="{00000005-B886-448D-BABE-6AA799D84D69}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4642,7 +4650,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-ADC5-45EB-93D0-2028DE3405CA}"/>
+              <c16:uniqueId val="{00000007-B886-448D-BABE-6AA799D84D69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4799,7 +4807,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC2E07A-3631-43BA-ADF1-6B0623173D30}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5968C0C6-FB20-4ED3-A5A5-2021E6100A32}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4853,7 +4861,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0535DDB3-1EFF-4F17-AAD2-B715EA071016}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79483F3-8CE1-425A-8C9C-4FCFBE2DB5BC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4897,7 +4905,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7DB712-6F9D-44FD-89D9-11E63F269558}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19372306-0F8C-4D62-8A94-C973B51815CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4940,7 +4948,7 @@
         <xdr:cNvPr id="3090" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998DFC16-7B26-4430-9F28-7EC9DE7CAF4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADB4C8A-AF65-4A84-86FC-639355E1423D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4983,7 +4991,7 @@
         <xdr:cNvPr id="4114" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F08E9A4-DBF4-4993-A87D-9FAE66131061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C131734F-05DF-4430-9A90-FB93F220FEBA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,7 +5024,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509DBD6B-8AEC-485C-B614-B168537A9707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A8F584-6521-469C-AD71-8CF0CB65EE17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5059,7 +5067,7 @@
         <xdr:cNvPr id="17423" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EC6C13-A39F-41D2-8F81-C3BF851BBE70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C132B2-FB2A-4178-AABD-DB7B03656DD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5102,7 +5110,7 @@
         <xdr:cNvPr id="19471" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2222A86-A65B-436D-94B5-33613933BED7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85528F4-5799-4F8F-B838-0F89F655E3CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5482,15 +5490,15 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -5522,481 +5530,481 @@
         <v>0</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="30"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41">
+      <c r="A4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36">
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36">
+      <c r="A5" s="32"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36">
+      <c r="A6" s="32"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36">
+      <c r="A7" s="32"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36">
+      <c r="A8" s="32"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36">
+      <c r="A9" s="32"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="30"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36">
+      <c r="A10" s="32"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36">
+      <c r="A11" s="32"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36">
+      <c r="A12" s="32"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36">
+      <c r="A13" s="32"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="30"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36">
+      <c r="A14" s="32"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36">
+      <c r="A15" s="32"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36">
+      <c r="A16" s="32"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36">
+      <c r="A17" s="32"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36">
+      <c r="A18" s="32"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="30"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="36">
+      <c r="A19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="36">
+      <c r="A20" s="32"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="30"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="36">
+      <c r="A21" s="32"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="36">
+      <c r="A22" s="32"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="30"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="36">
+      <c r="A23" s="32"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="30"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="36">
+      <c r="A24" s="32"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="36">
+      <c r="A25" s="32"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="36">
+      <c r="A26" s="32"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="36">
+      <c r="A27" s="32"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="36">
+      <c r="A28" s="32"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="36">
+      <c r="A29" s="32"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="36">
+      <c r="A30" s="32"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="30"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="36">
+      <c r="A31" s="32"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="36">
+      <c r="A32" s="32"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="36">
+      <c r="A33" s="32"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39">
+      <c r="A34" s="35"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="9"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="10"/>
+      <c r="E36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6074,15 +6082,15 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -6114,481 +6122,481 @@
         <v>0</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="30"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41">
+      <c r="A4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44">
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="46">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44">
+      <c r="A5" s="32"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="46">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="44">
+      <c r="A6" s="32"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="44">
+      <c r="A7" s="32"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="44">
+      <c r="A8" s="32"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="30"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="44">
+      <c r="A9" s="32"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="30"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="44">
+      <c r="A10" s="32"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="44">
+      <c r="A11" s="32"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="44">
+      <c r="A12" s="32"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="30"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="44">
+      <c r="A13" s="32"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="30"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="44">
+      <c r="A14" s="32"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="30"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="44">
+      <c r="A15" s="32"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="30"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44">
+      <c r="A16" s="32"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="30"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="44">
+      <c r="A17" s="32"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="44">
+      <c r="A18" s="32"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="30"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="44">
+      <c r="A19" s="32"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="30"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="44">
+      <c r="A20" s="32"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="30"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="44">
+      <c r="A21" s="32"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="30"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="44">
+      <c r="A22" s="32"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="30"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="44">
+      <c r="A23" s="32"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="30"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="44">
+      <c r="A24" s="32"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="30"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="44">
+      <c r="A25" s="32"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="30"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="44">
+      <c r="A26" s="32"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="30"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="44">
+      <c r="A27" s="32"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="30"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="44">
+      <c r="A28" s="32"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="30"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="44">
+      <c r="A29" s="32"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="30"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="44">
+      <c r="A30" s="32"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="30"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="44">
+      <c r="A31" s="32"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="44">
+      <c r="A32" s="32"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="44">
+      <c r="A33" s="32"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="33"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="45">
+      <c r="A34" s="35"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="47">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="9"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="10"/>
+      <c r="E36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6611,634 +6619,634 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="11" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="11" customWidth="1"/>
-    <col min="11" max="13" width="7" style="11" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="11" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="11" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="8" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="11.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="12" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="12" customWidth="1"/>
+    <col min="11" max="13" width="7" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="12" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="8" style="12" customWidth="1"/>
+    <col min="20" max="20" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="67" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="67" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="70"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="55" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="61" t="s">
+      <c r="K3" s="56"/>
+      <c r="L3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="71"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14">
+      <c r="A5" s="26"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="16">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14">
+      <c r="A6" s="26"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
         <f t="shared" ref="P6:P17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="16">
         <f t="shared" ref="Q6:Q17" si="1">SUM(C6,E6,G6,I6,K6,O6,M6)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="15">
+      <c r="A7" s="26"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15">
+      <c r="A9" s="27"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-    </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15">
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-    </row>
-    <row r="12" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15">
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+    </row>
+    <row r="12" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15">
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+    </row>
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-    </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15">
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15">
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-    </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="19">
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+    </row>
+    <row r="17" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="21">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="21">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="21">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="21">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15">
+      <c r="P17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="1:20" s="23" customFormat="1">
-      <c r="A18" s="22" t="s">
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+    </row>
+    <row r="18" spans="1:20" s="25" customFormat="1">
+      <c r="A18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="29">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="29">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="30">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="31">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7273,634 +7281,634 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6" style="11" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8" style="11" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="11" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="11" customWidth="1"/>
-    <col min="11" max="13" width="7" style="11" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="11" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="11" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="11" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="8" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="11.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6" style="12" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8" style="12" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="12" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="12" customWidth="1"/>
+    <col min="11" max="13" width="7" style="12" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="12" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="12" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="8" style="12" customWidth="1"/>
+    <col min="20" max="20" width="10" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="67" t="s">
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="67" t="s">
+      <c r="O2" s="71"/>
+      <c r="P2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="70"/>
+      <c r="Q2" s="73"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="53" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="53" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="54"/>
-      <c r="H3" s="72" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="53" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="54"/>
-      <c r="L3" s="61" t="s">
+      <c r="K3" s="56"/>
+      <c r="L3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="71"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14">
+      <c r="A5" s="26"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="16">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14">
+      <c r="A6" s="26"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
         <f t="shared" ref="P6:Q17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
+      <c r="Q6" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="16"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-    </row>
-    <row r="11" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-    </row>
-    <row r="12" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="16"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-    </row>
-    <row r="14" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="16"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="25"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="16"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-    </row>
-    <row r="17" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="19">
+      <c r="A9" s="27"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+    </row>
+    <row r="10" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+    </row>
+    <row r="11" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+    </row>
+    <row r="12" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="27"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+    </row>
+    <row r="13" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+    </row>
+    <row r="14" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+    </row>
+    <row r="16" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+    </row>
+    <row r="17" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="21">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="21">
         <f t="shared" ref="C17:O17" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="21">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="21">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="20"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="1:20" s="23" customFormat="1">
-      <c r="A18" s="22" t="s">
+      <c r="P17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="22"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+    </row>
+    <row r="18" spans="1:20" s="25" customFormat="1">
+      <c r="A18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="29">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="27">
+      <c r="K18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="27">
+      <c r="N18" s="29">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="29">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="30">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="31">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>20</v>
       </c>
     </row>

--- a/PhoenixCI/Excel_Template/30395.xlsx
+++ b/PhoenixCI/Excel_Template/30395.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C687A5D4-1F9E-4412-88A8-7F0EC41F1E91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAD0D192-92E2-44D6-B0D1-B1DA1970F250}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="14895" windowHeight="8955"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="30395" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -728,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,9 +748,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,9 +778,6 @@
     </xf>
     <xf numFmtId="182" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -824,7 +819,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="182" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -834,7 +829,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="182" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="190" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -843,22 +838,22 @@
     <xf numFmtId="190" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="190" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="190" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="190" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="191" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="191" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="191" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="191" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -870,13 +865,13 @@
     <xf numFmtId="191" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="22" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -921,13 +916,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1051,7 +1043,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A422-4707-A3DB-614CAA187BD2}"/>
+              <c16:uniqueId val="{00000000-C1EC-469B-8B24-352568BECDB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1101,7 +1093,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A422-4707-A3DB-614CAA187BD2}"/>
+              <c16:uniqueId val="{00000001-C1EC-469B-8B24-352568BECDB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1114,7 +1106,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="383174288"/>
+        <c:axId val="435366040"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -1169,7 +1161,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A422-4707-A3DB-614CAA187BD2}"/>
+              <c16:uniqueId val="{00000002-C1EC-469B-8B24-352568BECDB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1220,7 +1212,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A422-4707-A3DB-614CAA187BD2}"/>
+              <c16:uniqueId val="{00000003-C1EC-469B-8B24-352568BECDB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,7 +1230,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="383174288"/>
+        <c:axId val="435366040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1322,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383174288"/>
+        <c:crossAx val="435366040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1568,7 +1560,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-B142-451F-8AF4-09DA2306F18A}"/>
+                <c16:uniqueId val="{00000000-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1588,7 +1580,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B142-451F-8AF4-09DA2306F18A}"/>
+                <c16:uniqueId val="{00000001-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1608,7 +1600,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-B142-451F-8AF4-09DA2306F18A}"/>
+                <c16:uniqueId val="{00000002-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1628,7 +1620,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B142-451F-8AF4-09DA2306F18A}"/>
+                <c16:uniqueId val="{00000003-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1648,7 +1640,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-B142-451F-8AF4-09DA2306F18A}"/>
+                <c16:uniqueId val="{00000004-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1668,7 +1660,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B142-451F-8AF4-09DA2306F18A}"/>
+                <c16:uniqueId val="{00000005-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1688,7 +1680,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-B142-451F-8AF4-09DA2306F18A}"/>
+                <c16:uniqueId val="{00000006-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1735,7 +1727,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-B142-451F-8AF4-09DA2306F18A}"/>
+                  <c16:uniqueId val="{00000000-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1781,7 +1773,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-B142-451F-8AF4-09DA2306F18A}"/>
+                  <c16:uniqueId val="{00000001-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1827,7 +1819,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-B142-451F-8AF4-09DA2306F18A}"/>
+                  <c16:uniqueId val="{00000002-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1873,7 +1865,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B142-451F-8AF4-09DA2306F18A}"/>
+                  <c16:uniqueId val="{00000003-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1919,7 +1911,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-B142-451F-8AF4-09DA2306F18A}"/>
+                  <c16:uniqueId val="{00000004-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1965,7 +1957,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-B142-451F-8AF4-09DA2306F18A}"/>
+                  <c16:uniqueId val="{00000005-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2067,7 +2059,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B142-451F-8AF4-09DA2306F18A}"/>
+              <c16:uniqueId val="{00000007-8D3C-4DD9-A83B-FD086C6A5E8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2260,7 +2252,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-87AB-47A4-9E37-3B3F80EF604E}"/>
+                <c16:uniqueId val="{00000000-DEBB-463A-BB9F-E074826F4352}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2280,7 +2272,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-87AB-47A4-9E37-3B3F80EF604E}"/>
+                <c16:uniqueId val="{00000001-DEBB-463A-BB9F-E074826F4352}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2300,7 +2292,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-87AB-47A4-9E37-3B3F80EF604E}"/>
+                <c16:uniqueId val="{00000002-DEBB-463A-BB9F-E074826F4352}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2320,7 +2312,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-87AB-47A4-9E37-3B3F80EF604E}"/>
+                <c16:uniqueId val="{00000003-DEBB-463A-BB9F-E074826F4352}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2340,7 +2332,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-87AB-47A4-9E37-3B3F80EF604E}"/>
+                <c16:uniqueId val="{00000004-DEBB-463A-BB9F-E074826F4352}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2360,7 +2352,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-87AB-47A4-9E37-3B3F80EF604E}"/>
+                <c16:uniqueId val="{00000005-DEBB-463A-BB9F-E074826F4352}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2380,7 +2372,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-87AB-47A4-9E37-3B3F80EF604E}"/>
+                <c16:uniqueId val="{00000006-DEBB-463A-BB9F-E074826F4352}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2427,7 +2419,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-87AB-47A4-9E37-3B3F80EF604E}"/>
+                  <c16:uniqueId val="{00000000-DEBB-463A-BB9F-E074826F4352}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2473,7 +2465,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-87AB-47A4-9E37-3B3F80EF604E}"/>
+                  <c16:uniqueId val="{00000001-DEBB-463A-BB9F-E074826F4352}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2519,7 +2511,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-87AB-47A4-9E37-3B3F80EF604E}"/>
+                  <c16:uniqueId val="{00000002-DEBB-463A-BB9F-E074826F4352}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2565,7 +2557,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-87AB-47A4-9E37-3B3F80EF604E}"/>
+                  <c16:uniqueId val="{00000003-DEBB-463A-BB9F-E074826F4352}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2611,7 +2603,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-87AB-47A4-9E37-3B3F80EF604E}"/>
+                  <c16:uniqueId val="{00000004-DEBB-463A-BB9F-E074826F4352}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2657,7 +2649,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-87AB-47A4-9E37-3B3F80EF604E}"/>
+                  <c16:uniqueId val="{00000005-DEBB-463A-BB9F-E074826F4352}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2759,7 +2751,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-87AB-47A4-9E37-3B3F80EF604E}"/>
+              <c16:uniqueId val="{00000007-DEBB-463A-BB9F-E074826F4352}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2942,7 +2934,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6342-49FC-8D9A-5224C38AB622}"/>
+              <c16:uniqueId val="{00000000-EC16-4879-BB79-1C349A101A19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2992,7 +2984,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6342-49FC-8D9A-5224C38AB622}"/>
+              <c16:uniqueId val="{00000001-EC16-4879-BB79-1C349A101A19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3005,7 +2997,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="382506400"/>
+        <c:axId val="436319248"/>
         <c:axId val="1"/>
       </c:barChart>
       <c:lineChart>
@@ -3060,7 +3052,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6342-49FC-8D9A-5224C38AB622}"/>
+              <c16:uniqueId val="{00000002-EC16-4879-BB79-1C349A101A19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3111,7 +3103,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6342-49FC-8D9A-5224C38AB622}"/>
+              <c16:uniqueId val="{00000003-EC16-4879-BB79-1C349A101A19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3129,7 +3121,7 @@
         <c:axId val="4"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="382506400"/>
+        <c:axId val="436319248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3213,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382506400"/>
+        <c:crossAx val="436319248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -3459,7 +3451,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-55BE-4194-9A1F-FA1A925EAF70}"/>
+                <c16:uniqueId val="{00000000-514F-4F08-93DC-9491B0C30AD2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3479,7 +3471,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-55BE-4194-9A1F-FA1A925EAF70}"/>
+                <c16:uniqueId val="{00000001-514F-4F08-93DC-9491B0C30AD2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3499,7 +3491,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-55BE-4194-9A1F-FA1A925EAF70}"/>
+                <c16:uniqueId val="{00000002-514F-4F08-93DC-9491B0C30AD2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3519,7 +3511,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-55BE-4194-9A1F-FA1A925EAF70}"/>
+                <c16:uniqueId val="{00000003-514F-4F08-93DC-9491B0C30AD2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3539,7 +3531,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-55BE-4194-9A1F-FA1A925EAF70}"/>
+                <c16:uniqueId val="{00000004-514F-4F08-93DC-9491B0C30AD2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3559,7 +3551,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-55BE-4194-9A1F-FA1A925EAF70}"/>
+                <c16:uniqueId val="{00000005-514F-4F08-93DC-9491B0C30AD2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3579,7 +3571,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-55BE-4194-9A1F-FA1A925EAF70}"/>
+                <c16:uniqueId val="{00000006-514F-4F08-93DC-9491B0C30AD2}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3626,7 +3618,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-55BE-4194-9A1F-FA1A925EAF70}"/>
+                  <c16:uniqueId val="{00000000-514F-4F08-93DC-9491B0C30AD2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3672,7 +3664,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-55BE-4194-9A1F-FA1A925EAF70}"/>
+                  <c16:uniqueId val="{00000001-514F-4F08-93DC-9491B0C30AD2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3718,7 +3710,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-55BE-4194-9A1F-FA1A925EAF70}"/>
+                  <c16:uniqueId val="{00000002-514F-4F08-93DC-9491B0C30AD2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3764,7 +3756,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-55BE-4194-9A1F-FA1A925EAF70}"/>
+                  <c16:uniqueId val="{00000003-514F-4F08-93DC-9491B0C30AD2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3810,7 +3802,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-55BE-4194-9A1F-FA1A925EAF70}"/>
+                  <c16:uniqueId val="{00000004-514F-4F08-93DC-9491B0C30AD2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3856,7 +3848,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-55BE-4194-9A1F-FA1A925EAF70}"/>
+                  <c16:uniqueId val="{00000005-514F-4F08-93DC-9491B0C30AD2}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3958,7 +3950,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-55BE-4194-9A1F-FA1A925EAF70}"/>
+              <c16:uniqueId val="{00000007-514F-4F08-93DC-9491B0C30AD2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4151,7 +4143,7 @@
             <c:bubble3D val="0"/>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-B886-448D-BABE-6AA799D84D69}"/>
+                <c16:uniqueId val="{00000000-ADC5-45EB-93D0-2028DE3405CA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4171,7 +4163,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B886-448D-BABE-6AA799D84D69}"/>
+                <c16:uniqueId val="{00000001-ADC5-45EB-93D0-2028DE3405CA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4191,7 +4183,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-B886-448D-BABE-6AA799D84D69}"/>
+                <c16:uniqueId val="{00000002-ADC5-45EB-93D0-2028DE3405CA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4211,7 +4203,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B886-448D-BABE-6AA799D84D69}"/>
+                <c16:uniqueId val="{00000003-ADC5-45EB-93D0-2028DE3405CA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4231,7 +4223,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-B886-448D-BABE-6AA799D84D69}"/>
+                <c16:uniqueId val="{00000004-ADC5-45EB-93D0-2028DE3405CA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4251,7 +4243,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B886-448D-BABE-6AA799D84D69}"/>
+                <c16:uniqueId val="{00000005-ADC5-45EB-93D0-2028DE3405CA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4271,7 +4263,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-B886-448D-BABE-6AA799D84D69}"/>
+                <c16:uniqueId val="{00000006-ADC5-45EB-93D0-2028DE3405CA}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4318,7 +4310,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-B886-448D-BABE-6AA799D84D69}"/>
+                  <c16:uniqueId val="{00000000-ADC5-45EB-93D0-2028DE3405CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4364,7 +4356,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-B886-448D-BABE-6AA799D84D69}"/>
+                  <c16:uniqueId val="{00000001-ADC5-45EB-93D0-2028DE3405CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4410,7 +4402,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-B886-448D-BABE-6AA799D84D69}"/>
+                  <c16:uniqueId val="{00000002-ADC5-45EB-93D0-2028DE3405CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4456,7 +4448,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B886-448D-BABE-6AA799D84D69}"/>
+                  <c16:uniqueId val="{00000003-ADC5-45EB-93D0-2028DE3405CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4502,7 +4494,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-B886-448D-BABE-6AA799D84D69}"/>
+                  <c16:uniqueId val="{00000004-ADC5-45EB-93D0-2028DE3405CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4548,7 +4540,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-B886-448D-BABE-6AA799D84D69}"/>
+                  <c16:uniqueId val="{00000005-ADC5-45EB-93D0-2028DE3405CA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4650,7 +4642,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-B886-448D-BABE-6AA799D84D69}"/>
+              <c16:uniqueId val="{00000007-ADC5-45EB-93D0-2028DE3405CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4807,7 +4799,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5968C0C6-FB20-4ED3-A5A5-2021E6100A32}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC2E07A-3631-43BA-ADF1-6B0623173D30}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4861,7 +4853,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79483F3-8CE1-425A-8C9C-4FCFBE2DB5BC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0535DDB3-1EFF-4F17-AAD2-B715EA071016}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4905,7 +4897,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19372306-0F8C-4D62-8A94-C973B51815CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7DB712-6F9D-44FD-89D9-11E63F269558}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4948,7 +4940,7 @@
         <xdr:cNvPr id="3090" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADB4C8A-AF65-4A84-86FC-639355E1423D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998DFC16-7B26-4430-9F28-7EC9DE7CAF4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4991,7 +4983,7 @@
         <xdr:cNvPr id="4114" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C131734F-05DF-4430-9A90-FB93F220FEBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F08E9A4-DBF4-4993-A87D-9FAE66131061}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5024,7 +5016,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A8F584-6521-469C-AD71-8CF0CB65EE17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{509DBD6B-8AEC-485C-B614-B168537A9707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5067,7 +5059,7 @@
         <xdr:cNvPr id="17423" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C132B2-FB2A-4178-AABD-DB7B03656DD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3EC6C13-A39F-41D2-8F81-C3BF851BBE70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5110,7 +5102,7 @@
         <xdr:cNvPr id="19471" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A85528F4-5799-4F8F-B838-0F89F655E3CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2222A86-A65B-436D-94B5-33613933BED7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5490,15 +5482,15 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -5530,481 +5522,481 @@
         <v>0</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43">
+      <c r="A4" s="30"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38">
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38">
+      <c r="A5" s="30"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38">
+      <c r="A6" s="30"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38">
+      <c r="A7" s="30"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38">
+      <c r="A8" s="30"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38">
+      <c r="A9" s="30"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38">
+      <c r="A10" s="30"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38">
+      <c r="A11" s="30"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="32"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38">
+      <c r="A12" s="30"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="32"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38">
+      <c r="A13" s="30"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="32"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38">
+      <c r="A14" s="30"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38">
+      <c r="A15" s="30"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38">
+      <c r="A16" s="30"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="32"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38">
+      <c r="A17" s="30"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="32"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38">
+      <c r="A18" s="30"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="38">
+      <c r="A19" s="30"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="38">
+      <c r="A20" s="30"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="38">
+      <c r="A21" s="30"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="32"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="38">
+      <c r="A22" s="30"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="38">
+      <c r="A23" s="30"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="38">
+      <c r="A24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="38">
+      <c r="A25" s="30"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="32"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="38">
+      <c r="A26" s="30"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="32"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="38">
+      <c r="A27" s="30"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="32"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="38">
+      <c r="A28" s="30"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="38">
+      <c r="A29" s="30"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="32"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="38">
+      <c r="A30" s="30"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="32"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="38">
+      <c r="A31" s="30"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="32"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="38">
+      <c r="A32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="38">
+      <c r="A33" s="30"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41">
+      <c r="A34" s="33"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="10"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="11"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6082,15 +6074,15 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -6122,481 +6114,481 @@
         <v>0</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43">
+      <c r="A4" s="30"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41">
         <f t="shared" ref="C4:C34" si="0">B4-B3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="46">
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="44">
         <f>B4-F4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="46">
+      <c r="A5" s="30"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="44">
         <f t="shared" ref="G5:G33" si="1">B5-F5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="46">
+      <c r="A6" s="30"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="46">
+      <c r="A7" s="30"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="46">
+      <c r="A8" s="30"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="46">
+      <c r="A9" s="30"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="46">
+      <c r="A10" s="30"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="46">
+      <c r="A11" s="30"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="32"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="46">
+      <c r="A12" s="30"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="32"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="46">
+      <c r="A13" s="30"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="32"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="46">
+      <c r="A14" s="30"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="46">
+      <c r="A15" s="30"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="46">
+      <c r="A16" s="30"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="32"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="46">
+      <c r="A17" s="30"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="32"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="46">
+      <c r="A18" s="30"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="32"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="46">
+      <c r="A19" s="30"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="32"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="46">
+      <c r="A20" s="30"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="32"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="46">
+      <c r="A21" s="30"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="32"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="46">
+      <c r="A22" s="30"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="32"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="46">
+      <c r="A23" s="30"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="32"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="46">
+      <c r="A24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="32"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="46">
+      <c r="A25" s="30"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="32"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="46">
+      <c r="A26" s="30"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="32"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="46">
+      <c r="A27" s="30"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="32"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="46">
+      <c r="A28" s="30"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="32"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="46">
+      <c r="A29" s="30"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="32"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="46">
+      <c r="A30" s="30"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="32"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="46">
+      <c r="A31" s="30"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="32"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="46">
+      <c r="A32" s="30"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="32"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="46">
+      <c r="A33" s="30"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A34" s="35"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="47">
+      <c r="A34" s="33"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="45">
         <f>B34-F34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="B35" s="10"/>
-      <c r="E35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="E36" s="11"/>
+      <c r="E36" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6619,634 +6611,634 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="12" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="12" customWidth="1"/>
-    <col min="11" max="13" width="7" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="12" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="12" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="8" style="12" customWidth="1"/>
-    <col min="20" max="20" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="11.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="6" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="11" customWidth="1"/>
+    <col min="11" max="13" width="7" style="11" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="11" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="11" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="8" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="70" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="70" t="s">
+      <c r="O2" s="68"/>
+      <c r="P2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="73"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="55" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="55" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="63" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="74"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="71"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="15">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14">
         <f t="shared" ref="P6:P17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="16">
+      <c r="Q6" s="15">
         <f t="shared" ref="Q6:Q17" si="1">SUM(C6,E6,G6,I6,K6,O6,M6)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
+      <c r="A7" s="24"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
+      <c r="A8" s="24"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
+      <c r="A9" s="25"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-    </row>
-    <row r="12" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
+      <c r="R12" s="16"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-    </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
+      <c r="R13" s="16"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-    </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
+      <c r="R14" s="16"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-    </row>
-    <row r="16" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
+      <c r="R15" s="16"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-    </row>
-    <row r="17" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="21">
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="19">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:O17" si="2">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="19">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
+      <c r="P17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-    </row>
-    <row r="18" spans="1:20" s="25" customFormat="1">
-      <c r="A18" s="24" t="s">
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="1:20" s="23" customFormat="1">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="27">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="27">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="28">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7281,634 +7273,634 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8" style="12" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="12" customWidth="1"/>
-    <col min="9" max="9" width="6.375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="9.625" style="12" customWidth="1"/>
-    <col min="11" max="13" width="7" style="12" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="12" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="12" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="8" style="12" customWidth="1"/>
-    <col min="20" max="20" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="11.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="6" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="6.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.625" style="11" customWidth="1"/>
+    <col min="11" max="13" width="7" style="11" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="11" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="11" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="11" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="8" style="11" customWidth="1"/>
+    <col min="20" max="20" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="70" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="71"/>
-      <c r="P2" s="70" t="s">
+      <c r="O2" s="68"/>
+      <c r="P2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="73"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="55" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="55" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="56"/>
-      <c r="H3" s="75" t="s">
+      <c r="G3" s="54"/>
+      <c r="H3" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="55" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="63" t="s">
+      <c r="K3" s="54"/>
+      <c r="L3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="64"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="74"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="71"/>
     </row>
     <row r="4" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A4" s="69"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14">
         <f>SUM(B5,D5,F5,H5,J5,N5,L5)</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="15">
         <f>SUM(C5,E5,G5,I5,K5,O5,M5)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14">
         <f t="shared" ref="P6:Q17" si="0">SUM(B6,D6,F6,H6,J6,N6,L6)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
+      <c r="Q6" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="16"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20" ht="15.2" customHeight="1">
-      <c r="A9" s="27"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-    </row>
-    <row r="10" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-    </row>
-    <row r="11" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A11" s="27"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-    </row>
-    <row r="12" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A12" s="27"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-    </row>
-    <row r="13" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-    </row>
-    <row r="14" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A14" s="27"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-    </row>
-    <row r="15" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-    </row>
-    <row r="16" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-    </row>
-    <row r="17" spans="1:20" s="20" customFormat="1" ht="15.2" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="21">
+      <c r="A9" s="25"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A11" s="25"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="16"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="16"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="16"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A15" s="25"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="16"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A16" s="25"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="16"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="18" customFormat="1" ht="15.2" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="19">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <f t="shared" ref="C17:O17" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="19">
         <f>SUM(L5:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="21">
+      <c r="M17" s="19">
         <f>SUM(M5:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="21">
+      <c r="N17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O17" s="21">
+      <c r="O17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P17" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-    </row>
-    <row r="18" spans="1:20" s="25" customFormat="1">
-      <c r="A18" s="24" t="s">
+      <c r="P17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="1:20" s="23" customFormat="1">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(B17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(C17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(D17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(E17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(F17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(G17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(H17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="I18" s="29">
+      <c r="I18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(I17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="J18" s="29">
+      <c r="J18" s="27">
         <f xml:space="preserve"> IF( $P$17 = 0,0,ROUND(J17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(K17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(L17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(M17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="27">
         <f xml:space="preserve"> 100 - B18 - D18 - F18 - H18 - J18-L18</f>
         <v>100</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="27">
         <f xml:space="preserve"> 100 - C18 - E18 - G18 - I18 - K18-M18</f>
         <v>100</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="28">
         <f>IF( $P$17 = 0,0, ROUND(P17 / $P$17,4)) * 100</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="31">
+      <c r="Q18" s="29">
         <f xml:space="preserve"> IF( $Q$17 = 0,0,ROUND(Q17 / $Q$17,4)) * 100</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
     </row>
